--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edn2-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edn2-Ednrb.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.71215133333333</v>
+        <v>14.37161333333333</v>
       </c>
       <c r="N2">
-        <v>125.136454</v>
+        <v>43.11484</v>
       </c>
       <c r="O2">
-        <v>0.2049377865502938</v>
+        <v>0.4561705932627708</v>
       </c>
       <c r="P2">
-        <v>0.2703868219970402</v>
+        <v>0.5019766122855294</v>
       </c>
       <c r="Q2">
-        <v>7.828550466290444</v>
+        <v>2.697269180937778</v>
       </c>
       <c r="R2">
-        <v>70.45695419661401</v>
+        <v>24.27542262844</v>
       </c>
       <c r="S2">
-        <v>0.2049377865502938</v>
+        <v>0.4561705932627708</v>
       </c>
       <c r="T2">
-        <v>0.2703868219970402</v>
+        <v>0.5019766122855294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>1.055898</v>
       </c>
       <c r="O3">
-        <v>0.001729259476562138</v>
+        <v>0.01117178254830525</v>
       </c>
       <c r="P3">
-        <v>0.002281516659989669</v>
+        <v>0.01229358849433434</v>
       </c>
       <c r="Q3">
         <v>0.066057096202</v>
@@ -638,10 +638,10 @@
         <v>0.594513865818</v>
       </c>
       <c r="S3">
-        <v>0.001729259476562138</v>
+        <v>0.01117178254830525</v>
       </c>
       <c r="T3">
-        <v>0.002281516659989669</v>
+        <v>0.01229358849433434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.108626</v>
+        <v>2.798424666666667</v>
       </c>
       <c r="N4">
-        <v>12.325878</v>
+        <v>8.395274000000001</v>
       </c>
       <c r="O4">
-        <v>0.02018626925938754</v>
+        <v>0.08882503382091908</v>
       </c>
       <c r="P4">
-        <v>0.02663296644751684</v>
+        <v>0.09774433122629669</v>
       </c>
       <c r="Q4">
-        <v>0.771108297222</v>
+        <v>0.5252092742482223</v>
       </c>
       <c r="R4">
-        <v>6.939974674998001</v>
+        <v>4.726883468234001</v>
       </c>
       <c r="S4">
-        <v>0.02018626925938754</v>
+        <v>0.08882503382091908</v>
       </c>
       <c r="T4">
-        <v>0.02663296644751684</v>
+        <v>0.09774433122629669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.801735</v>
+        <v>8.624592</v>
       </c>
       <c r="N5">
-        <v>295.60347</v>
+        <v>17.249184</v>
       </c>
       <c r="O5">
-        <v>0.726171138408471</v>
+        <v>0.2737539034788959</v>
       </c>
       <c r="P5">
-        <v>0.6387210142984987</v>
+        <v>0.2008284606648142</v>
       </c>
       <c r="Q5">
-        <v>27.739478892045</v>
+        <v>1.618666301424</v>
       </c>
       <c r="R5">
-        <v>166.43687335227</v>
+        <v>9.711997808544</v>
       </c>
       <c r="S5">
-        <v>0.726171138408471</v>
+        <v>0.2737539034788959</v>
       </c>
       <c r="T5">
-        <v>0.6387210142984987</v>
+        <v>0.2008284606648142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.561199666666667</v>
+        <v>5.358313666666667</v>
       </c>
       <c r="N6">
-        <v>28.683599</v>
+        <v>16.074941</v>
       </c>
       <c r="O6">
-        <v>0.04697554630528544</v>
+        <v>0.1700786868891091</v>
       </c>
       <c r="P6">
-        <v>0.06197768059695444</v>
+        <v>0.1871570073290255</v>
       </c>
       <c r="Q6">
-        <v>1.794449140506556</v>
+        <v>1.005650095064555</v>
       </c>
       <c r="R6">
-        <v>16.150042264559</v>
+        <v>9.050850855581</v>
       </c>
       <c r="S6">
-        <v>0.04697554630528544</v>
+        <v>0.1700786868891091</v>
       </c>
       <c r="T6">
-        <v>0.06197768059695444</v>
+        <v>0.1871570073290255</v>
       </c>
     </row>
   </sheetData>
